--- a/top_25_gdp_growth.xlsx
+++ b/top_25_gdp_growth.xlsx
@@ -14,9 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -374,139 +452,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>7.458876735329642</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>5.473813537166375</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>4.727708996785105</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>4.291799312219737</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>3.988996447742332</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>3.963239534456168</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>3.88606090007619</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>3.726475473369945</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>3.566825254830422</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>3.563184638348466</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>3.527346993674417</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>3.30039513814979</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>3.210525670052959</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>2.947561822470676</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
         <v>2.741827932410388</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>2.722021635343913</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>2.560606505322337</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
         <v>2.559794724587988</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>2.448967947334511</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>2.43342376157031</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>2.356607512766581</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>2.351289600002153</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>2.26021730402207</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
         <v>2.068636269538928</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>2.054483241786034</v>
       </c>
     </row>
